--- a/biology/Botanique/Prunus_tenella/Prunus_tenella.xlsx
+++ b/biology/Botanique/Prunus_tenella/Prunus_tenella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus tenella, l'amandier nain, est une espèce de plantes à fleurs de la famille des Rosaceae et du genre Prunus.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prunus tenella est un arbrisseau de 80 cm à 1,50 mètre de haut, à feuilles caduques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prunus tenella est un arbrisseau de 80 cm à 1,50 mètre de haut, à feuilles caduques.
 Les feuilles sont lancéolées, de 2,5-6 × 0,8-3 cm, bordées de longues dents aiguës et rassemblées en formation serrées sur de courts rameaux. La base est cunée à atténuée.
 Les fleurs solitaires, hermaphrodites sont roses. Elles épanouissent avec les premières feuilles. L'hypanthium pourpre à brun, cylindrique fait 5-8 × 4-4 mm. Les sépales ovées font 3-4 mm et les pétales, roses ou veinées de rose, entourent les nombreuses étamines plus courtes que les pétales.
 Le fruit est une drupe ovoïde de 1-2 × 1,2-1,8 cm, de couleur jaune paille, au mésocarpe sec.
@@ -545,9 +559,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il a d'abord été décrit par Linné comme Amygdalus nana L. D'après GRIN les synonymes sont[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il a d'abord été décrit par Linné comme Amygdalus nana L. D'après GRIN les synonymes sont :
 (=) Amygdalus georgica Desf.
 (=) Amygdalus gessleriana G. Kirchn.
 (=) Amygdalus ledebouriana Schltdl.
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'amandier nain se trouve à l'état sauvage :
 en Europe, en Autriche orientale, au sud de la Moravie, en Hongrie, en Bulgarie, au sud-est de l'ancienne Yougoslavie, et dans le sud-ouest de l'Albanie ;
@@ -616,7 +634,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fleurs d'amandier nain.
